--- a/data.xlsx
+++ b/data.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:27</t>
+          <t>01/11/2021, 13:02:43</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:27</t>
+          <t>01/11/2021, 13:02:43</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:27</t>
+          <t>01/11/2021, 13:02:43</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:27</t>
+          <t>01/11/2021, 13:02:43</t>
         </is>
       </c>
     </row>
@@ -699,14 +699,14 @@
           <t>AZ5</t>
         </is>
       </c>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>עובד</t>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>לא עובד</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:27</t>
+          <t>01/11/2021, 13:02:43</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:27</t>
+          <t>01/11/2021, 13:02:43</t>
         </is>
       </c>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1234,14 +1234,14 @@
           <t>AZ13</t>
         </is>
       </c>
-      <c r="E14" s="11" t="inlineStr">
-        <is>
-          <t>לא עובד</t>
+      <c r="E14" s="13" t="inlineStr">
+        <is>
+          <t>עובד</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1362,14 +1362,14 @@
           <t>AZ17</t>
         </is>
       </c>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>לא עובד</t>
+      <c r="E18" s="13" t="inlineStr">
+        <is>
+          <t>עובד</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:33</t>
+          <t>01/11/2021, 13:02:49</t>
         </is>
       </c>
     </row>
@@ -1596,14 +1596,14 @@
           <t>ZN01</t>
         </is>
       </c>
-      <c r="E2" s="13" t="inlineStr">
-        <is>
-          <t>עובד</t>
+      <c r="E2" s="11" t="inlineStr">
+        <is>
+          <t>לא עובד</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1820,14 +1820,14 @@
           <t>ZN08</t>
         </is>
       </c>
-      <c r="E9" s="13" t="inlineStr">
-        <is>
-          <t>עובד</t>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>לא עובד</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2403,7 +2403,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2499,7 +2499,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2531,7 +2531,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:21</t>
+          <t>01/11/2021, 13:02:37</t>
         </is>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2874,7 +2874,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2906,7 +2906,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>28/10/2021, 09:04:39</t>
+          <t>01/11/2021, 13:02:38</t>
         </is>
       </c>
     </row>
